--- a/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Valores das acões com variacão.xlsx
+++ b/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Valores das acões com variacão.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Dados Siderurgia Brasileira 2016~2022\2 Entrega - Cliclo 2\Passo 05 - Exploração dos dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7ADF0F-EAA8-46D7-A5E3-434CCE5E88A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F08578-016E-413B-9A5F-B03873995762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9360" yWindow="705" windowWidth="11475" windowHeight="7845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores das acoes" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
     <sheet name="Crescimento" sheetId="2" r:id="rId3"/>
+    <sheet name="Média" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valores das acoes'!$A$1:$G$1640</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>Data</t>
   </si>
@@ -150,6 +151,285 @@
   <si>
     <t>* Com base no início ao final da série</t>
   </si>
+  <si>
+    <t>1/2016</t>
+  </si>
+  <si>
+    <t>2/2016</t>
+  </si>
+  <si>
+    <t>3/2016</t>
+  </si>
+  <si>
+    <t>4/2016</t>
+  </si>
+  <si>
+    <t>5/2016</t>
+  </si>
+  <si>
+    <t>6/2016</t>
+  </si>
+  <si>
+    <t>7/2016</t>
+  </si>
+  <si>
+    <t>8/2016</t>
+  </si>
+  <si>
+    <t>9/2016</t>
+  </si>
+  <si>
+    <t>10/2016</t>
+  </si>
+  <si>
+    <t>11/2016</t>
+  </si>
+  <si>
+    <t>12/2016</t>
+  </si>
+  <si>
+    <t>1/2017</t>
+  </si>
+  <si>
+    <t>2/2017</t>
+  </si>
+  <si>
+    <t>3/2017</t>
+  </si>
+  <si>
+    <t>4/2017</t>
+  </si>
+  <si>
+    <t>5/2017</t>
+  </si>
+  <si>
+    <t>6/2017</t>
+  </si>
+  <si>
+    <t>7/2017</t>
+  </si>
+  <si>
+    <t>8/2017</t>
+  </si>
+  <si>
+    <t>9/2017</t>
+  </si>
+  <si>
+    <t>10/2017</t>
+  </si>
+  <si>
+    <t>11/2017</t>
+  </si>
+  <si>
+    <t>12/2017</t>
+  </si>
+  <si>
+    <t>1/2018</t>
+  </si>
+  <si>
+    <t>2/2018</t>
+  </si>
+  <si>
+    <t>3/2018</t>
+  </si>
+  <si>
+    <t>4/2018</t>
+  </si>
+  <si>
+    <t>5/2018</t>
+  </si>
+  <si>
+    <t>6/2018</t>
+  </si>
+  <si>
+    <t>7/2018</t>
+  </si>
+  <si>
+    <t>8/2018</t>
+  </si>
+  <si>
+    <t>9/2018</t>
+  </si>
+  <si>
+    <t>10/2018</t>
+  </si>
+  <si>
+    <t>11/2018</t>
+  </si>
+  <si>
+    <t>12/2018</t>
+  </si>
+  <si>
+    <t>1/2019</t>
+  </si>
+  <si>
+    <t>2/2019</t>
+  </si>
+  <si>
+    <t>3/2019</t>
+  </si>
+  <si>
+    <t>4/2019</t>
+  </si>
+  <si>
+    <t>5/2019</t>
+  </si>
+  <si>
+    <t>6/2019</t>
+  </si>
+  <si>
+    <t>7/2019</t>
+  </si>
+  <si>
+    <t>8/2019</t>
+  </si>
+  <si>
+    <t>9/2019</t>
+  </si>
+  <si>
+    <t>10/2019</t>
+  </si>
+  <si>
+    <t>11/2019</t>
+  </si>
+  <si>
+    <t>12/2019</t>
+  </si>
+  <si>
+    <t>1/2020</t>
+  </si>
+  <si>
+    <t>2/2020</t>
+  </si>
+  <si>
+    <t>3/2020</t>
+  </si>
+  <si>
+    <t>4/2020</t>
+  </si>
+  <si>
+    <t>5/2020</t>
+  </si>
+  <si>
+    <t>6/2020</t>
+  </si>
+  <si>
+    <t>7/2020</t>
+  </si>
+  <si>
+    <t>8/2020</t>
+  </si>
+  <si>
+    <t>9/2020</t>
+  </si>
+  <si>
+    <t>10/2020</t>
+  </si>
+  <si>
+    <t>11/2020</t>
+  </si>
+  <si>
+    <t>12/2020</t>
+  </si>
+  <si>
+    <t>1/2021</t>
+  </si>
+  <si>
+    <t>2/2021</t>
+  </si>
+  <si>
+    <t>3/2021</t>
+  </si>
+  <si>
+    <t>4/2021</t>
+  </si>
+  <si>
+    <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>8/2021</t>
+  </si>
+  <si>
+    <t>9/2021</t>
+  </si>
+  <si>
+    <t>10/2021</t>
+  </si>
+  <si>
+    <t>11/2021</t>
+  </si>
+  <si>
+    <t>12/2021</t>
+  </si>
+  <si>
+    <t>1/2022</t>
+  </si>
+  <si>
+    <t>2/2022</t>
+  </si>
+  <si>
+    <t>3/2022</t>
+  </si>
+  <si>
+    <t>4/2022</t>
+  </si>
+  <si>
+    <t>6/2022</t>
+  </si>
+  <si>
+    <t>7/2022</t>
+  </si>
+  <si>
+    <t>8/2022</t>
+  </si>
+  <si>
+    <t>Ano/Mês</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Media das ações das maiores empresas do setor siderúrgico</t>
+  </si>
+  <si>
+    <t>Variação da média das ações das maiores empresas do setor siderúrgico</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +439,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +570,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -650,7 +936,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -668,6 +954,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="14" fillId="33" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1160,11 +1447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1640"/>
+  <dimension ref="A1:I1640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H2:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1460,7 @@
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42373</v>
       </c>
@@ -1218,8 +1505,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>3.8757157564000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42374</v>
       </c>
@@ -1241,8 +1534,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>3.125084615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42375</v>
       </c>
@@ -1264,8 +1563,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4">
+        <v>3.7981794358000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42376</v>
       </c>
@@ -1287,8 +1592,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>5.5417750118000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42377</v>
       </c>
@@ -1310,8 +1621,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>7.279134988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42380</v>
       </c>
@@ -1333,8 +1650,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>4.8300636301999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42381</v>
       </c>
@@ -1356,8 +1679,14 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>5.7245350122000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42382</v>
       </c>
@@ -1379,8 +1708,14 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>6.9763791085999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42383</v>
       </c>
@@ -1402,8 +1737,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>6.8339746950000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42384</v>
       </c>
@@ -1425,8 +1766,14 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>7.107426834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42387</v>
       </c>
@@ -1448,8 +1795,14 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <v>8.3523600095999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42388</v>
       </c>
@@ -1471,8 +1824,14 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13">
+        <v>10.000359059999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42389</v>
       </c>
@@ -1494,8 +1853,14 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>8.8696257119999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42390</v>
       </c>
@@ -1517,8 +1882,14 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>10.713256645800001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42391</v>
       </c>
@@ -1540,8 +1911,14 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <v>10.9966205608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42395</v>
       </c>
@@ -1563,8 +1940,14 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>9.6545039176000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42396</v>
       </c>
@@ -1586,8 +1969,14 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18">
+        <v>9.2464648248000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42397</v>
       </c>
@@ -1609,8 +1998,14 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19">
+        <v>8.5974584110000016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42398</v>
       </c>
@@ -1632,8 +2027,14 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20">
+        <v>9.5250979898000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42401</v>
       </c>
@@ -1655,8 +2056,14 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21">
+        <v>9.9452116967999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42402</v>
       </c>
@@ -1678,8 +2085,14 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22">
+        <v>11.929969120200001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42403</v>
       </c>
@@ -1701,8 +2114,14 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23">
+        <v>11.013546657000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42404</v>
       </c>
@@ -1724,8 +2143,14 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <v>10.881424617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42405</v>
       </c>
@@ -1747,8 +2172,14 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>11.108863163399999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42410</v>
       </c>
@@ -1770,8 +2201,14 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26">
+        <v>12.941012859800001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42411</v>
       </c>
@@ -1793,8 +2230,14 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27">
+        <v>14.2028635028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42412</v>
       </c>
@@ -1816,8 +2259,14 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28">
+        <v>15.044727802599999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42415</v>
       </c>
@@ -1839,8 +2288,14 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <v>14.2512412084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42416</v>
       </c>
@@ -1862,8 +2317,14 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30">
+        <v>15.2890249248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42417</v>
       </c>
@@ -1885,8 +2346,14 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <v>14.9933934212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42418</v>
       </c>
@@ -1908,8 +2375,14 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32">
+        <v>13.7092298508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42419</v>
       </c>
@@ -1931,8 +2404,14 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>15.508891582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42422</v>
       </c>
@@ -1954,8 +2433,14 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>15.782668208400001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42423</v>
       </c>
@@ -1977,8 +2462,14 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>17.0123486524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42424</v>
       </c>
@@ -2000,8 +2491,14 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36">
+        <v>16.962933920200005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42425</v>
       </c>
@@ -2023,8 +2520,14 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37">
+        <v>16.225748728800003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42426</v>
       </c>
@@ -2046,8 +2549,14 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38">
+        <v>15.570477008599999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42429</v>
       </c>
@@ -2069,8 +2578,14 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39">
+        <v>15.1407960892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42430</v>
       </c>
@@ -2092,8 +2607,14 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>15.670994948799997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42431</v>
       </c>
@@ -2115,8 +2636,14 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>17.448162652400001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42432</v>
       </c>
@@ -2138,8 +2665,14 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42">
+        <v>15.591471004799999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42433</v>
       </c>
@@ -2161,8 +2694,14 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>16.040062235800001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42436</v>
       </c>
@@ -2184,8 +2723,14 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>17.460004902199998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42437</v>
       </c>
@@ -2207,8 +2752,14 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45">
+        <v>16.0370126726</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42438</v>
       </c>
@@ -2230,8 +2781,14 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>14.981595610400001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42439</v>
       </c>
@@ -2253,8 +2810,14 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47">
+        <v>15.1749320014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42440</v>
       </c>
@@ -2276,8 +2839,14 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48">
+        <v>15.220021154199998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42443</v>
       </c>
@@ -2299,8 +2868,14 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49">
+        <v>17.212271498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42444</v>
       </c>
@@ -2322,8 +2897,14 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50">
+        <v>19.4227525726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42445</v>
       </c>
@@ -2345,8 +2926,14 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51">
+        <v>18.631263542599999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42446</v>
       </c>
@@ -2368,8 +2955,14 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52">
+        <v>16.585800170000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42447</v>
       </c>
@@ -2391,8 +2984,14 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I53">
+        <v>11.951247119400001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42450</v>
       </c>
@@ -2414,8 +3013,14 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54">
+        <v>12.9225558274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42451</v>
       </c>
@@ -2437,8 +3042,14 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55">
+        <v>15.590077398599998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42452</v>
       </c>
@@ -2460,8 +3071,14 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56">
+        <v>16.638840104000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42453</v>
       </c>
@@ -2483,8 +3100,14 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57">
+        <v>18.845131778999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42457</v>
       </c>
@@ -2506,8 +3129,14 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58">
+        <v>20.646299552800002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42458</v>
       </c>
@@ -2529,8 +3158,14 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59">
+        <v>20.8687747944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42459</v>
       </c>
@@ -2552,8 +3187,14 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60">
+        <v>23.69945736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42460</v>
       </c>
@@ -2575,8 +3216,14 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61">
+        <v>27.556935120000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42461</v>
       </c>
@@ -2598,8 +3245,14 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62">
+        <v>32.061297416000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42464</v>
       </c>
@@ -2621,8 +3274,14 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63">
+        <v>30.533544541999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42465</v>
       </c>
@@ -2644,8 +3303,14 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64">
+        <v>33.745733068</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42466</v>
       </c>
@@ -2667,8 +3332,14 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65">
+        <v>35.610785102000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42467</v>
       </c>
@@ -2690,8 +3361,14 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66">
+        <v>42.836528013999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42468</v>
       </c>
@@ -2713,8 +3390,14 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67">
+        <v>40.472660825999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42471</v>
       </c>
@@ -2736,8 +3419,14 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68">
+        <v>41.232690049999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42472</v>
       </c>
@@ -2759,8 +3448,14 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69">
+        <v>36.343546488000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42473</v>
       </c>
@@ -2782,8 +3477,14 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70">
+        <v>32.595657347999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42474</v>
       </c>
@@ -2805,8 +3506,14 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>107</v>
+      </c>
+      <c r="I71">
+        <v>29.671683311999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42475</v>
       </c>
@@ -2828,8 +3535,14 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72">
+        <v>29.444100952000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42478</v>
       </c>
@@ -2851,8 +3564,14 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>109</v>
+      </c>
+      <c r="I73">
+        <v>32.276683807999994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42479</v>
       </c>
@@ -2874,8 +3593,14 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>110</v>
+      </c>
+      <c r="I74">
+        <v>34.896438599999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42480</v>
       </c>
@@ -2897,8 +3622,14 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75">
+        <v>36.919331742000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42482</v>
       </c>
@@ -2920,8 +3651,14 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>112</v>
+      </c>
+      <c r="I76">
+        <v>37.832525634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42485</v>
       </c>
@@ -2943,8 +3680,14 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>113</v>
+      </c>
+      <c r="I77">
+        <v>34.755999756000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42486</v>
       </c>
@@ -2966,8 +3709,14 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>114</v>
+      </c>
+      <c r="I78">
+        <v>27.721999930200003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42487</v>
       </c>
@@ -2989,8 +3738,14 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>115</v>
+      </c>
+      <c r="I79">
+        <v>26.606000517800005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42488</v>
       </c>
@@ -38903,8 +39658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42A210-FB33-4D61-BBDC-2EBC130A49FF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39007,9 +39762,7 @@
       <c r="J5" s="8">
         <v>6.7487883569999996</v>
       </c>
-      <c r="K5" s="8">
-        <v>52.784740450000001</v>
-      </c>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" s="4">
@@ -39030,9 +39783,7 @@
       <c r="J6" s="8">
         <v>7.6853194240000002</v>
       </c>
-      <c r="K6" s="8">
-        <v>39.027183530000002</v>
-      </c>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" s="4">
@@ -39053,9 +39804,7 @@
       <c r="J7" s="8">
         <v>13.735013009999999</v>
       </c>
-      <c r="K7" s="8">
-        <v>34.67124939</v>
-      </c>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" s="4">
@@ -39076,9 +39825,7 @@
       <c r="J8" s="8">
         <v>32.015357969999997</v>
       </c>
-      <c r="K8" s="8">
-        <v>61.69313812</v>
-      </c>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" s="4">
@@ -39099,9 +39846,7 @@
       <c r="J9" s="8">
         <v>23.922266010000001</v>
       </c>
-      <c r="K9" s="8">
-        <v>89.733642579999994</v>
-      </c>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
@@ -39194,23 +39939,23 @@
         <v>1.3302746952926654</v>
       </c>
       <c r="F14" s="11">
-        <f>F4/F3-1</f>
+        <f t="shared" ref="F14:J19" si="3">F4/F3-1</f>
         <v>1.39863955067502</v>
       </c>
       <c r="G14" s="11">
-        <f>G4/G3-1</f>
+        <f t="shared" si="3"/>
         <v>1.3183561555900938</v>
       </c>
       <c r="H14" s="11">
-        <f>H4/H3-1</f>
+        <f t="shared" si="3"/>
         <v>0.98638601650116087</v>
       </c>
       <c r="I14" s="11">
-        <f>I4/I3-1</f>
+        <f t="shared" si="3"/>
         <v>1.7945204044169358</v>
       </c>
       <c r="J14" s="11">
-        <f>J4/J3-1</f>
+        <f t="shared" si="3"/>
         <v>1.8134713492801171</v>
       </c>
       <c r="K14" s="12"/>
@@ -39240,23 +39985,23 @@
         <v>0.4296823769283607</v>
       </c>
       <c r="F15" s="11">
-        <f>F5/F4-1</f>
+        <f t="shared" si="3"/>
         <v>0.20208857232998945</v>
       </c>
       <c r="G15" s="11">
-        <f>G5/G4-1</f>
+        <f t="shared" si="3"/>
         <v>0.42539671919721145</v>
       </c>
       <c r="H15" s="11">
-        <f>H5/H4-1</f>
+        <f t="shared" si="3"/>
         <v>0.73872160082401583</v>
       </c>
       <c r="I15" s="11">
-        <f>I5/I4-1</f>
+        <f t="shared" si="3"/>
         <v>1.3529415809028165</v>
       </c>
       <c r="J15" s="11">
-        <f>J5/J4-1</f>
+        <f t="shared" si="3"/>
         <v>-0.20073658861222965</v>
       </c>
       <c r="K15" s="12"/>
@@ -39265,7 +40010,7 @@
         <v>USIM5</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ref="M15:M20" si="3">INDEX($E$13:$K$20,1,MATCH(SMALL($E15:$K15,1),$E15:$K15,0))</f>
+        <f t="shared" ref="M15:M20" si="4">INDEX($E$13:$K$20,1,MATCH(SMALL($E15:$K15,1),$E15:$K15,0))</f>
         <v>CSNA3</v>
       </c>
     </row>
@@ -39286,36 +40031,33 @@
         <v>9.7140975857357481E-2</v>
       </c>
       <c r="F16" s="11">
-        <f>F6/F5-1</f>
+        <f t="shared" si="3"/>
         <v>0.20022563316413633</v>
       </c>
       <c r="G16" s="11">
-        <f>G6/G5-1</f>
+        <f t="shared" si="3"/>
         <v>0.17638353021363495</v>
       </c>
       <c r="H16" s="11">
-        <f>H6/H5-1</f>
+        <f t="shared" si="3"/>
         <v>0.27420206724030027</v>
       </c>
       <c r="I16" s="11">
-        <f>I6/I5-1</f>
+        <f t="shared" si="3"/>
         <v>2.1123395779008902E-2</v>
       </c>
       <c r="J16" s="11">
-        <f>J6/J5-1</f>
+        <f t="shared" si="3"/>
         <v>0.13877025288970701</v>
       </c>
-      <c r="K16" s="13">
-        <f>K6/K5-1</f>
-        <v>-0.26063511542756856</v>
-      </c>
+      <c r="K16" s="13"/>
       <c r="L16" s="11" t="str">
-        <f t="shared" ref="L16:L20" si="4">INDEX($E$13:$K$20,1,MATCH(LARGE($E16:$K16,1),$E16:$K16,0))</f>
+        <f t="shared" ref="L16:L20" si="5">INDEX($E$13:$K$20,1,MATCH(LARGE($E16:$K16,1),$E16:$K16,0))</f>
         <v>VALE3</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="3"/>
-        <v>ARMT34</v>
+        <f t="shared" si="4"/>
+        <v>USIM5</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -39335,36 +40077,33 @@
         <v>0.28931819328251251</v>
       </c>
       <c r="F17" s="11">
-        <f>F7/F6-1</f>
+        <f t="shared" si="3"/>
         <v>0.39329700452000771</v>
       </c>
       <c r="G17" s="11">
-        <f>G7/G6-1</f>
+        <f t="shared" si="3"/>
         <v>0.45326476028883445</v>
       </c>
       <c r="H17" s="11">
-        <f>H7/H6-1</f>
+        <f t="shared" si="3"/>
         <v>9.1596308832912587E-2</v>
       </c>
       <c r="I17" s="11">
-        <f>I7/I6-1</f>
+        <f t="shared" si="3"/>
         <v>1.0757597608996861E-2</v>
       </c>
       <c r="J17" s="11">
-        <f>J7/J6-1</f>
+        <f t="shared" si="3"/>
         <v>0.78717529516181095</v>
       </c>
-      <c r="K17" s="13">
-        <f>K7/K6-1</f>
-        <v>-0.11161282331971556</v>
-      </c>
+      <c r="K17" s="13"/>
       <c r="L17" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>CSNA3</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="4"/>
-        <v>CSNA3</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="3"/>
-        <v>ARMT34</v>
+        <v>USIM5</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -39384,35 +40123,32 @@
         <v>0.53434904007199779</v>
       </c>
       <c r="F18" s="11">
-        <f>F8/F7-1</f>
+        <f t="shared" si="3"/>
         <v>0.27216351806749883</v>
       </c>
       <c r="G18" s="11">
-        <f>G8/G7-1</f>
+        <f t="shared" si="3"/>
         <v>0.22281760224098579</v>
       </c>
       <c r="H18" s="11">
-        <f>H8/H7-1</f>
+        <f t="shared" si="3"/>
         <v>0.75378702803000186</v>
       </c>
       <c r="I18" s="11">
-        <f>I8/I7-1</f>
+        <f t="shared" si="3"/>
         <v>0.55454675390742714</v>
       </c>
       <c r="J18" s="11">
-        <f>J8/J7-1</f>
+        <f t="shared" si="3"/>
         <v>1.3309302981140751</v>
       </c>
-      <c r="K18" s="13">
-        <f>K8/K7-1</f>
-        <v>0.77937453092745335</v>
-      </c>
+      <c r="K18" s="13"/>
       <c r="L18" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>CSNA3</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>CSNA3</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="3"/>
         <v>GGBR3</v>
       </c>
       <c r="P18" t="s">
@@ -39439,35 +40175,32 @@
         <v>-9.2005742565393095E-2</v>
       </c>
       <c r="F19" s="11">
-        <f>F9/F8-1</f>
+        <f t="shared" si="3"/>
         <v>0.17671868425203274</v>
       </c>
       <c r="G19" s="11">
-        <f>G9/G8-1</f>
+        <f t="shared" si="3"/>
         <v>0.2151415461030608</v>
       </c>
       <c r="H19" s="11">
-        <f>H9/H8-1</f>
+        <f t="shared" si="3"/>
         <v>3.261351029373083E-3</v>
       </c>
       <c r="I19" s="11">
-        <f>I9/I8-1</f>
+        <f t="shared" si="3"/>
         <v>8.5137507430006032E-2</v>
       </c>
       <c r="J19" s="11">
-        <f>J9/J8-1</f>
+        <f t="shared" si="3"/>
         <v>-0.2527878016414381</v>
       </c>
-      <c r="K19" s="13">
-        <f>K9/K8-1</f>
-        <v>0.4545157745981101</v>
-      </c>
+      <c r="K19" s="13"/>
       <c r="L19" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>GGBR3</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="4"/>
-        <v>ARMT34</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="3"/>
         <v>CSNA3</v>
       </c>
       <c r="P19" t="s">
@@ -39482,49 +40215,46 @@
         <v>29</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" ref="B20:K20" si="5">SUM(B14:B19)</f>
+        <f t="shared" ref="B20:K20" si="6">SUM(B14:B19)</f>
         <v>0.55889999999999995</v>
       </c>
       <c r="C20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1476595388675008</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="10">
+        <f t="shared" si="6"/>
+        <v>2.5887595388675009</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="6"/>
+        <v>2.6431329630086857</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="6"/>
+        <v>2.8113603136338208</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="6"/>
+        <v>2.8479543724577647</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="6"/>
+        <v>3.819027240045191</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="6"/>
+        <v>3.6168228051920424</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>2.5887595388675009</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="5"/>
-        <v>2.6431329630086857</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="5"/>
-        <v>2.8113603136338208</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="5"/>
-        <v>2.8479543724577647</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="5"/>
-        <v>3.819027240045191</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="5"/>
-        <v>3.6168228051920424</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="shared" si="5"/>
-        <v>0.86164236677827932</v>
-      </c>
-      <c r="L20" s="11" t="str">
+        <v>USIM5</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="4"/>
-        <v>USIM5</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="3"/>
-        <v>ARMT34</v>
+        <v>Diferença</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
@@ -39753,7 +40483,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39996,4 +40726,739 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7063A812-BB64-4A0B-959E-3B56D35D581F}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M19" sqref="I19:M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="15">
+        <v>3.8757157564000004</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.125084615</v>
+      </c>
+      <c r="D3" s="15">
+        <v>3.7981794358000003</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5.5417750118000004</v>
+      </c>
+      <c r="F3" s="15">
+        <v>7.279134988</v>
+      </c>
+      <c r="G3" s="15">
+        <v>4.8300636301999997</v>
+      </c>
+      <c r="H3" s="15">
+        <v>5.7245350122000005</v>
+      </c>
+      <c r="I3" s="15">
+        <v>6.9763791085999998</v>
+      </c>
+      <c r="J3" s="15">
+        <v>6.8339746950000002</v>
+      </c>
+      <c r="K3" s="15">
+        <v>7.107426834</v>
+      </c>
+      <c r="L3" s="15">
+        <v>8.3523600095999999</v>
+      </c>
+      <c r="M3" s="15">
+        <v>10.000359059999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8.8696257119999995</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10.713256645800001</v>
+      </c>
+      <c r="D4" s="15">
+        <v>10.9966205608</v>
+      </c>
+      <c r="E4" s="15">
+        <v>9.6545039176000014</v>
+      </c>
+      <c r="F4" s="15">
+        <v>9.2464648248000003</v>
+      </c>
+      <c r="G4" s="15">
+        <v>8.5974584110000016</v>
+      </c>
+      <c r="H4" s="15">
+        <v>9.5250979898000008</v>
+      </c>
+      <c r="I4" s="15">
+        <v>9.9452116967999995</v>
+      </c>
+      <c r="J4" s="15">
+        <v>11.929969120200001</v>
+      </c>
+      <c r="K4" s="15">
+        <v>11.013546657000001</v>
+      </c>
+      <c r="L4" s="15">
+        <v>10.881424617</v>
+      </c>
+      <c r="M4" s="15">
+        <v>11.108863163399999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="15">
+        <v>12.941012859800001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>14.2028635028</v>
+      </c>
+      <c r="D5" s="15">
+        <v>15.044727802599999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>14.2512412084</v>
+      </c>
+      <c r="F5" s="15">
+        <v>15.2890249248</v>
+      </c>
+      <c r="G5" s="15">
+        <v>14.9933934212</v>
+      </c>
+      <c r="H5" s="15">
+        <v>13.7092298508</v>
+      </c>
+      <c r="I5" s="15">
+        <v>15.508891582</v>
+      </c>
+      <c r="J5" s="15">
+        <v>15.782668208400001</v>
+      </c>
+      <c r="K5" s="15">
+        <v>17.0123486524</v>
+      </c>
+      <c r="L5" s="15">
+        <v>16.962933920200005</v>
+      </c>
+      <c r="M5" s="15">
+        <v>16.225748728800003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="15">
+        <v>15.570477008599999</v>
+      </c>
+      <c r="C6" s="15">
+        <v>15.1407960892</v>
+      </c>
+      <c r="D6" s="15">
+        <v>15.670994948799997</v>
+      </c>
+      <c r="E6" s="15">
+        <v>17.448162652400001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>15.591471004799999</v>
+      </c>
+      <c r="G6" s="15">
+        <v>16.040062235800001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>17.460004902199998</v>
+      </c>
+      <c r="I6" s="15">
+        <v>16.0370126726</v>
+      </c>
+      <c r="J6" s="15">
+        <v>14.981595610400001</v>
+      </c>
+      <c r="K6" s="15">
+        <v>15.1749320014</v>
+      </c>
+      <c r="L6" s="15">
+        <v>15.220021154199998</v>
+      </c>
+      <c r="M6" s="15">
+        <v>17.212271498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="15">
+        <v>19.4227525726</v>
+      </c>
+      <c r="C7" s="15">
+        <v>18.631263542599999</v>
+      </c>
+      <c r="D7" s="15">
+        <v>16.585800170000002</v>
+      </c>
+      <c r="E7" s="15">
+        <v>11.951247119400001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>12.9225558274</v>
+      </c>
+      <c r="G7" s="15">
+        <v>15.590077398599998</v>
+      </c>
+      <c r="H7" s="15">
+        <v>16.638840104000003</v>
+      </c>
+      <c r="I7" s="15">
+        <v>18.845131778999999</v>
+      </c>
+      <c r="J7" s="15">
+        <v>20.646299552800002</v>
+      </c>
+      <c r="K7" s="15">
+        <v>20.8687747944</v>
+      </c>
+      <c r="L7" s="15">
+        <v>23.69945736</v>
+      </c>
+      <c r="M7" s="15">
+        <v>27.556935120000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="15">
+        <v>32.061297416000002</v>
+      </c>
+      <c r="C8" s="15">
+        <v>30.533544541999998</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33.745733068</v>
+      </c>
+      <c r="E8" s="15">
+        <v>35.610785102000008</v>
+      </c>
+      <c r="F8" s="15">
+        <v>42.836528013999995</v>
+      </c>
+      <c r="G8" s="15">
+        <v>40.472660825999995</v>
+      </c>
+      <c r="H8" s="15">
+        <v>41.232690049999995</v>
+      </c>
+      <c r="I8" s="15">
+        <v>36.343546488000001</v>
+      </c>
+      <c r="J8" s="15">
+        <v>32.595657347999996</v>
+      </c>
+      <c r="K8" s="15">
+        <v>29.671683311999999</v>
+      </c>
+      <c r="L8" s="15">
+        <v>29.444100952000003</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="15">
+        <v>32.276683807999994</v>
+      </c>
+      <c r="C9" s="15">
+        <v>34.896438599999996</v>
+      </c>
+      <c r="D9" s="15">
+        <v>36.919331742000004</v>
+      </c>
+      <c r="E9" s="15">
+        <v>37.832525634</v>
+      </c>
+      <c r="F9" s="15">
+        <v>34.755999756000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>27.721999930200003</v>
+      </c>
+      <c r="H9" s="15">
+        <v>26.606000517800005</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="3">
+        <f>(C3/B3)-1</f>
+        <v>-0.19367548823994052</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:M14" si="0">(D3/C3)-1</f>
+        <v>0.21538451073267995</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45906087520921757</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31350243784720067</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.33645087800094531</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18518832265631313</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21868048561710207</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.0412367416279498E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0013630603588313E-2</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17515947820167166</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19730938902368056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(B4/M3)-1</f>
+        <v>-0.11306927493461416</v>
+      </c>
+      <c r="C14" s="3">
+        <f>(C4/B4)-1</f>
+        <v>0.20785893268367506</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6449839144952136E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.12204809975750952</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.2264117999491702E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.0189680715520009E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10789695447821335</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4105972185260356E-2</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19956914783811208</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.6816834475145424E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.199632090503977E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.090154133353761E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" ref="B15:B19" si="1">(B5/M4)-1</f>
+        <v>0.16492683989810275</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15:M15" si="2">(C5/B5)-1</f>
+        <v>9.7507873353546826E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>5.9274265336284548E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.2741837845871165E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2820584623064732E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.933619083323368E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.5648627653847176E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13127372950822491</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.765288157135303E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7913343153569459E-2</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.9046390483552509E-3</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.3458590056885016E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.0384683083186435E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:M16" si="3">(C6/B6)-1</f>
+        <v>-2.7595873855545627E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5017898429937189E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11340490564934358</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.10641187181646394</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.8771578439385159E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>8.85247604108923E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.150010481501635E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="3"/>
+        <v>-6.5811325572076695E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2904926553069407E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9712919172117935E-3</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.13089668691099265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12842471575334202</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:M17" si="4">(C7/B7)-1</f>
+        <v>-4.0750610761348449E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.10978661580966242</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.279428969546062</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="4"/>
+        <v>8.127258170599716E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2064236832735511</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>6.7271167331997006E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.13259888677394049</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="4"/>
+        <v>9.5577350953158557E-2</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0775550409459544E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1356420102995024</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16276650141832616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16345657731475627</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:M18" si="5">(C8/B8)-1</f>
+        <v>-4.7650999713991227E-2</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10520195326754544</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5267788382068916E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.20290883481797106</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>-5.518344500813499E-2</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8778830165565807E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.1185744504195887</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>-0.10312392438744222</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="5"/>
+        <v>-8.9704404632275581E-2</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="5"/>
+        <v>-7.6700185023865775E-3</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:M19" si="6">(C9/B9)-1</f>
+        <v>8.1165549955001248E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>5.796846965351965E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>2.4734843479334412E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>-8.1319600699222949E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.20238231888540925</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
+        <v>-4.0256814631336901E-2</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Valores das acões com variacão.xlsx
+++ b/Dados Siderurgia Brasileira 2016~2022/2 Entrega - Cliclo 2/Passo 05 - Exploração dos dados/Valores das acões com variacão.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Dados Siderurgia Brasileira 2016~2022\2 Entrega - Cliclo 2\Passo 05 - Exploração dos dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F08578-016E-413B-9A5F-B03873995762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D0ECD-C4A3-43C4-8C8E-AA52FD349A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9360" yWindow="1050" windowWidth="11475" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores das acoes" sheetId="1" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H2:I79"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39658,7 +39658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42A210-FB33-4D61-BBDC-2EBC130A49FF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:J8"/>
     </sheetView>
   </sheetViews>
@@ -40215,7 +40215,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="10">
-        <f t="shared" ref="B20:K20" si="6">SUM(B14:B19)</f>
+        <f t="shared" ref="B20:J20" si="6">SUM(B14:B19)</f>
         <v>0.55889999999999995</v>
       </c>
       <c r="C20" s="10">
@@ -40732,8 +40732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7063A812-BB64-4A0B-959E-3B56D35D581F}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M19" sqref="I19:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41428,7 +41428,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:M19" si="6">(C9/B9)-1</f>
+        <f t="shared" ref="C19:H19" si="6">(C9/B9)-1</f>
         <v>8.1165549955001248E-2</v>
       </c>
       <c r="D19" s="3">
